--- a/results/mp/deberta/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
@@ -97,19 +97,19 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>well</t>
@@ -1093,25 +1093,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L19">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1119,25 +1119,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,25 +1145,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.549079754601227</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L21">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1171,25 +1171,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5490196078431373</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1197,25 +1197,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5396825396825397</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="10:17">
